--- a/data/Tablas DZ-DB.xlsx
+++ b/data/Tablas DZ-DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
   <si>
     <t>Usuarios</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Playlist</t>
   </si>
   <si>
-    <t>Albumes</t>
-  </si>
-  <si>
     <t>Favoritos</t>
   </si>
   <si>
@@ -83,12 +80,6 @@
     <t>Flores</t>
   </si>
   <si>
-    <t>seguidores</t>
-  </si>
-  <si>
-    <t>aplicaciones</t>
-  </si>
-  <si>
     <t>correo</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t>carlflawers</t>
   </si>
   <si>
-    <t>Tipo de Usuario</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cuenta</t>
   </si>
   <si>
@@ -218,9 +206,6 @@
     <t>Premium Personal</t>
   </si>
   <si>
-    <t>Código Tipo de cuenta</t>
-  </si>
-  <si>
     <t>Código tipo de cuenta</t>
   </si>
   <si>
@@ -248,9 +233,6 @@
     <t>Feche de Vencimiento</t>
   </si>
   <si>
-    <t>Código artista</t>
-  </si>
-  <si>
     <t>Artista</t>
   </si>
   <si>
@@ -278,7 +260,238 @@
     <t>Romantica en inglés</t>
   </si>
   <si>
-    <t>Nombre artista</t>
+    <t>Código cuenta</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Canción</t>
+  </si>
+  <si>
+    <t>Código Canción</t>
+  </si>
+  <si>
+    <t>Nombre de la canción</t>
+  </si>
+  <si>
+    <t>Letra</t>
+  </si>
+  <si>
+    <t>Paranoid</t>
+  </si>
+  <si>
+    <t>inicio…………..fin</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>Código Calidad</t>
+  </si>
+  <si>
+    <t>Tipo de calidad</t>
+  </si>
+  <si>
+    <t>Código canción</t>
+  </si>
+  <si>
+    <t>Billy Jeans</t>
+  </si>
+  <si>
+    <t>Me late</t>
+  </si>
+  <si>
+    <t>Despacito</t>
+  </si>
+  <si>
+    <t>Los Infieles</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Michael Jacson</t>
+  </si>
+  <si>
+    <t>Los Pericos</t>
+  </si>
+  <si>
+    <t>CalidadXCanción</t>
+  </si>
+  <si>
+    <t>Código Artista</t>
+  </si>
+  <si>
+    <t>Nombre Artista</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>Fecha de muerte</t>
+  </si>
+  <si>
+    <t>Daddy Yankee</t>
+  </si>
+  <si>
+    <t>Luis Fonsi</t>
+  </si>
+  <si>
+    <t>Black Sabath</t>
+  </si>
+  <si>
+    <t>Romeo Santos</t>
+  </si>
+  <si>
+    <t>Adelle</t>
+  </si>
+  <si>
+    <t>Puertoriqueño</t>
+  </si>
+  <si>
+    <t>inglés</t>
+  </si>
+  <si>
+    <t>Panameño</t>
+  </si>
+  <si>
+    <t>Estadounidense</t>
+  </si>
+  <si>
+    <t>ArtistaXCanción</t>
+  </si>
+  <si>
+    <t>Código Usuario</t>
+  </si>
+  <si>
+    <t>Genero Musical</t>
+  </si>
+  <si>
+    <t>Código genero musical</t>
+  </si>
+  <si>
+    <t>Código género musical</t>
+  </si>
+  <si>
+    <t>Álbum</t>
+  </si>
+  <si>
+    <t>Código Álbum</t>
+  </si>
+  <si>
+    <t>Nombre del Álbum</t>
+  </si>
+  <si>
+    <t>Copias Vendidas</t>
+  </si>
+  <si>
+    <t>Hard Rock</t>
+  </si>
+  <si>
+    <t>Dembow</t>
+  </si>
+  <si>
+    <t>Reguee Mix</t>
+  </si>
+  <si>
+    <t>Enamorate</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>Código MP3</t>
+  </si>
+  <si>
+    <t>Nombre Mp3</t>
+  </si>
+  <si>
+    <t>Crazy Train</t>
+  </si>
+  <si>
+    <t>Dura</t>
+  </si>
+  <si>
+    <t>Rollin in the Deep</t>
+  </si>
+  <si>
+    <t>código Playlist</t>
+  </si>
+  <si>
+    <t>Nombre de la Playlist</t>
+  </si>
+  <si>
+    <t>Fecha de creación</t>
+  </si>
+  <si>
+    <t>Rock Fuerte</t>
+  </si>
+  <si>
+    <t>Puro Queso</t>
+  </si>
+  <si>
+    <t>Reguee Viejo</t>
+  </si>
+  <si>
+    <t>Inglés del Recuerdo</t>
+  </si>
+  <si>
+    <t>Romanticonas</t>
+  </si>
+  <si>
+    <t>Códogo Comentario</t>
+  </si>
+  <si>
+    <t>Código Paylist</t>
+  </si>
+  <si>
+    <t>Fecha Comentario</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>Código Notificación</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Código Estado</t>
+  </si>
+  <si>
+    <t>Fecha Notificación</t>
+  </si>
+  <si>
+    <t>Asunto</t>
+  </si>
+  <si>
+    <t>Asunto1</t>
+  </si>
+  <si>
+    <t>Asunto2</t>
+  </si>
+  <si>
+    <t>Asunto3</t>
+  </si>
+  <si>
+    <t>Asunto4</t>
+  </si>
+  <si>
+    <t>Nombre Estado</t>
+  </si>
+  <si>
+    <t>Visto</t>
+  </si>
+  <si>
+    <t>No Visto</t>
+  </si>
+  <si>
+    <t>Código Favoritos</t>
   </si>
 </sst>
 </file>
@@ -322,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -345,13 +558,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -361,6 +585,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
@@ -643,40 +870,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S32"/>
+  <dimension ref="B3:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
     <col min="13" max="13" width="23.42578125" customWidth="1"/>
     <col min="14" max="14" width="23.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" customWidth="1"/>
+    <col min="22" max="23" width="20.7109375" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,60 +917,48 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -752,13 +970,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -767,22 +985,37 @@
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -794,13 +1027,13 @@
         <v>2</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2">
@@ -809,22 +1042,37 @@
       <c r="M6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>2</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="X6" s="6">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -836,13 +1084,13 @@
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2">
@@ -851,22 +1099,37 @@
       <c r="M7" s="2">
         <v>2</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T7" s="2">
+        <v>2</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="X7" s="6">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -878,13 +1141,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
@@ -893,22 +1156,31 @@
       <c r="M8" s="2">
         <v>3</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="2">
+        <v>3</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>2</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="X8" s="6">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -920,13 +1192,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2">
@@ -935,81 +1207,81 @@
       <c r="M9" s="2">
         <v>4</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="2">
+        <v>4</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>6</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="X9" s="6">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1020,34 +1292,49 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="P15" s="2">
-        <v>1</v>
+      <c r="O15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R15" s="2">
-        <v>20215151</v>
-      </c>
-      <c r="S15" s="6">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1058,36 +1345,49 @@
         <v>2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
       </c>
-      <c r="P16" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R16" s="2">
-        <v>65162613</v>
-      </c>
-      <c r="S16" s="6">
-        <v>40951</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>20215151</v>
+      </c>
+      <c r="R16" s="6">
+        <v>41255</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>2</v>
+      </c>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2">
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1098,30 +1398,43 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M17" s="2">
         <v>2</v>
       </c>
-      <c r="P17" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R17" s="2">
-        <v>45252</v>
-      </c>
-      <c r="S17" s="6">
-        <v>40941</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>65162613</v>
+      </c>
+      <c r="R17" s="6">
+        <v>40951</v>
+      </c>
+      <c r="T17" s="2">
+        <v>2</v>
+      </c>
+      <c r="U17" s="2">
+        <v>5</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2">
+        <v>5</v>
+      </c>
+      <c r="X17" s="6">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
@@ -1134,18 +1447,43 @@
         <v>4</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M18" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <v>3</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>45252</v>
+      </c>
+      <c r="R18" s="6">
+        <v>40941</v>
+      </c>
+      <c r="T18" s="2">
+        <v>3</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2">
@@ -1154,13 +1492,26 @@
       <c r="I19" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="2">
+        <v>4</v>
+      </c>
+      <c r="U19" s="2">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2">
+        <v>3</v>
+      </c>
+      <c r="X19" s="6">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
@@ -1170,12 +1521,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
@@ -1185,12 +1536,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <v>8</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
@@ -1199,19 +1550,19 @@
       <c r="I22" s="2">
         <v>3</v>
       </c>
-      <c r="K22" t="s">
-        <v>75</v>
-      </c>
-      <c r="R22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
@@ -1220,107 +1571,756 @@
       <c r="I23" s="2">
         <v>3</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>34263</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="6">
+        <v>41264</v>
+      </c>
+      <c r="W24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K25" s="2">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>6</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2</v>
+      </c>
+      <c r="O25" s="6">
+        <v>34263</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S25" s="2">
+        <v>2</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="U25" s="2">
+        <v>4</v>
+      </c>
+      <c r="V25" s="6">
+        <v>41264</v>
+      </c>
+      <c r="W25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" s="2">
+        <v>3</v>
+      </c>
+      <c r="O26" s="6">
+        <v>37185</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S26" s="2">
+        <v>3</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U26" s="2">
+        <v>3</v>
+      </c>
+      <c r="V26" s="6">
+        <v>41264</v>
+      </c>
+      <c r="W26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="K27" s="2">
+        <v>4</v>
+      </c>
+      <c r="L27" s="2">
+        <v>3</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="2">
+        <v>4</v>
+      </c>
+      <c r="O27" s="6">
+        <v>43029</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="S27" s="2">
+        <v>4</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U27" s="2">
+        <v>2</v>
+      </c>
+      <c r="V27" s="6">
+        <v>41264</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="6">
+        <v>41255</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2">
+        <v>5</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28" s="2">
+        <v>5</v>
+      </c>
+      <c r="O28" s="6">
+        <v>39742</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0.16527777777777777</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S28" s="2">
+        <v>5</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U28" s="2">
+        <v>6</v>
+      </c>
+      <c r="V28" s="6">
+        <v>41264</v>
+      </c>
+      <c r="W28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="6">
+        <v>41255</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>6</v>
+      </c>
+      <c r="L29" s="2">
+        <v>4</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N29" s="2">
+        <v>6</v>
+      </c>
+      <c r="O29" s="6">
+        <v>41933</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="6">
+        <v>41255</v>
+      </c>
+      <c r="E30" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="6">
+        <v>41255</v>
+      </c>
+      <c r="E31" s="8">
+        <v>25000</v>
+      </c>
+      <c r="F31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>3</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>64</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>41255</v>
+      </c>
+      <c r="R35" s="6">
+        <v>41255</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2</v>
+      </c>
+      <c r="L36" s="2">
+        <v>128</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>41255</v>
+      </c>
+      <c r="R36" s="6">
+        <v>41255</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>3</v>
+      </c>
+      <c r="L37" s="2">
+        <v>192</v>
+      </c>
+      <c r="N37" s="2">
+        <v>3</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>41255</v>
+      </c>
+      <c r="R37" s="6">
+        <v>41255</v>
+      </c>
+      <c r="T37" s="2">
+        <v>2</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2</v>
+      </c>
+      <c r="N38" s="2">
+        <v>4</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>41255</v>
+      </c>
+      <c r="R38" s="6">
+        <v>41255</v>
+      </c>
+      <c r="T38" s="2">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L23" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" t="s">
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2</v>
+      </c>
+      <c r="N39" s="2">
+        <v>5</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>41255</v>
+      </c>
+      <c r="R39" s="6">
+        <v>41255</v>
+      </c>
+      <c r="T39" s="2">
+        <v>4</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H40" s="2">
+        <v>4</v>
+      </c>
+      <c r="I40" s="2">
+        <v>3</v>
+      </c>
+      <c r="N40" s="2">
+        <v>6</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>41255</v>
+      </c>
+      <c r="R40" s="6">
+        <v>41255</v>
+      </c>
+      <c r="T40" s="2">
+        <v>5</v>
+      </c>
+      <c r="U40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O23" t="s">
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H41" s="2">
+        <v>5</v>
+      </c>
+      <c r="I41" s="2">
+        <v>3</v>
+      </c>
+      <c r="N41" s="2">
+        <v>7</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>41255</v>
+      </c>
+      <c r="R41" s="6">
+        <v>41255</v>
+      </c>
+      <c r="T41" s="2">
+        <v>6</v>
+      </c>
+      <c r="U41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R23" t="s">
-        <v>27</v>
-      </c>
-      <c r="S23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="R26">
-        <v>3</v>
-      </c>
-      <c r="S26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <v>4</v>
-      </c>
-      <c r="R27">
-        <v>4</v>
-      </c>
-      <c r="S27" t="s">
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K45" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K28">
+      <c r="L45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N45" t="s">
+        <v>155</v>
+      </c>
+      <c r="O45" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K47" s="2">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2">
+        <v>7</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K48" s="2">
+        <v>3</v>
+      </c>
+      <c r="L48" s="2">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K49" s="2">
+        <v>4</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K50" s="2">
+        <v>4</v>
+      </c>
+      <c r="L50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K51" s="2">
         <v>5</v>
       </c>
-      <c r="R28">
+      <c r="L51" s="2">
         <v>5</v>
       </c>
-      <c r="S28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K29">
+    </row>
+    <row r="52" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K52" s="2">
         <v>6</v>
       </c>
-      <c r="R29">
+      <c r="L52" s="2">
         <v>6</v>
-      </c>
-      <c r="S29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K32">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/Tablas DZ-DB.xlsx
+++ b/data/Tablas DZ-DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
   <si>
     <t>Usuarios</t>
   </si>
@@ -440,9 +440,6 @@
     <t>Inglés del Recuerdo</t>
   </si>
   <si>
-    <t>Romanticonas</t>
-  </si>
-  <si>
     <t>Códogo Comentario</t>
   </si>
   <si>
@@ -492,6 +489,18 @@
   </si>
   <si>
     <t>Código Favoritos</t>
+  </si>
+  <si>
+    <t>código cancion</t>
+  </si>
+  <si>
+    <t>código playlist</t>
+  </si>
+  <si>
+    <t>canciónXplaylist</t>
+  </si>
+  <si>
+    <t>variado</t>
   </si>
 </sst>
 </file>
@@ -522,7 +531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +541,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -570,12 +584,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -588,8 +603,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
     <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +919,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -944,10 +961,10 @@
         <v>60</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -986,25 +1003,25 @@
         <v>1</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>113</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
@@ -1046,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T6" s="2">
         <v>1</v>
@@ -1058,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X6" s="6">
         <v>41255</v>
@@ -1103,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T7" s="2">
         <v>2</v>
@@ -1115,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X7" s="6">
         <v>41255</v>
@@ -1166,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X8" s="6">
         <v>41255</v>
@@ -1217,20 +1234,20 @@
         <v>6</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X9" s="6">
         <v>41255</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1263,7 +1280,7 @@
       <c r="M14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="10" t="s">
         <v>64</v>
       </c>
       <c r="T14" s="3" t="s">
@@ -1308,10 +1325,10 @@
         <v>68</v>
       </c>
       <c r="T15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U15" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>118</v>
@@ -1320,7 +1337,7 @@
         <v>113</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -1599,12 +1616,9 @@
         <v>132</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="W23" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1636,13 +1650,10 @@
       <c r="T24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U24" s="2">
-        <v>1</v>
-      </c>
-      <c r="V24" s="6">
+      <c r="U24" s="6">
         <v>41264</v>
       </c>
-      <c r="W24" s="2">
+      <c r="V24" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1674,13 +1685,10 @@
       <c r="T25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="U25" s="2">
-        <v>4</v>
-      </c>
-      <c r="V25" s="6">
+      <c r="U25" s="6">
         <v>41264</v>
       </c>
-      <c r="W25" s="2">
+      <c r="V25" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1715,13 +1723,10 @@
       <c r="T26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="2">
-        <v>3</v>
-      </c>
-      <c r="V26" s="6">
+      <c r="U26" s="6">
         <v>41264</v>
       </c>
-      <c r="W26" s="2">
+      <c r="V26" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1767,13 +1772,10 @@
       <c r="T27" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="U27" s="2">
-        <v>2</v>
-      </c>
-      <c r="V27" s="6">
+      <c r="U27" s="6">
         <v>41264</v>
       </c>
-      <c r="W27" s="2">
+      <c r="V27" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1818,15 +1820,12 @@
         <v>5</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="U28" s="2">
-        <v>6</v>
-      </c>
-      <c r="V28" s="6">
+        <v>158</v>
+      </c>
+      <c r="U28" s="6">
         <v>41264</v>
       </c>
-      <c r="W28" s="2">
+      <c r="V28" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1900,7 +1899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H33" s="3" t="s">
         <v>97</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>125</v>
       </c>
@@ -1945,8 +1944,11 @@
       <c r="T34" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W34" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>126</v>
       </c>
@@ -1992,8 +1994,14 @@
       <c r="U35" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>1</v>
       </c>
@@ -2039,8 +2047,14 @@
       <c r="U36" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W36" s="2">
+        <v>1</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>2</v>
       </c>
@@ -2086,8 +2100,14 @@
       <c r="U37" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W37" s="2">
+        <v>1</v>
+      </c>
+      <c r="X37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>3</v>
       </c>
@@ -2127,8 +2147,14 @@
       <c r="U38" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W38" s="2">
+        <v>2</v>
+      </c>
+      <c r="X38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H39" s="2">
         <v>3</v>
       </c>
@@ -2156,8 +2182,14 @@
       <c r="U39" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W39" s="2">
+        <v>4</v>
+      </c>
+      <c r="X39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H40" s="2">
         <v>4</v>
       </c>
@@ -2185,8 +2217,14 @@
       <c r="U40" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W40" s="2">
+        <v>4</v>
+      </c>
+      <c r="X40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H41" s="2">
         <v>5</v>
       </c>
@@ -2214,8 +2252,14 @@
       <c r="U41" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W41" s="2">
+        <v>3</v>
+      </c>
+      <c r="X41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="K44" s="3" t="s">
         <v>112</v>
       </c>
@@ -2223,7 +2267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="K45" s="2" t="s">
         <v>81</v>
       </c>
@@ -2231,7 +2275,7 @@
         <v>98</v>
       </c>
       <c r="N45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O45" t="s">
         <v>113</v>
@@ -2240,7 +2284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="K46" s="2">
         <v>1</v>
       </c>
@@ -2257,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="K47" s="2">
         <v>2</v>
       </c>
@@ -2274,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="K48" s="2">
         <v>3</v>
       </c>

--- a/data/Tablas DZ-DB.xlsx
+++ b/data/Tablas DZ-DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="160">
   <si>
     <t>Usuarios</t>
   </si>
@@ -425,9 +425,6 @@
     <t>Nombre de la Playlist</t>
   </si>
   <si>
-    <t>Fecha de creación</t>
-  </si>
-  <si>
     <t>Rock Fuerte</t>
   </si>
   <si>
@@ -501,6 +498,12 @@
   </si>
   <si>
     <t>variado</t>
+  </si>
+  <si>
+    <t>Fecha de insersion</t>
+  </si>
+  <si>
+    <t>Fecha de creacion</t>
   </si>
 </sst>
 </file>
@@ -887,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:X52"/>
+  <dimension ref="B3:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,6 +919,7 @@
     <col min="21" max="21" width="21.140625" customWidth="1"/>
     <col min="22" max="23" width="20.7109375" customWidth="1"/>
     <col min="24" max="24" width="19.140625" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -961,10 +965,10 @@
         <v>60</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -1003,25 +1007,25 @@
         <v>1</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>113</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
@@ -1063,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T6" s="2">
         <v>1</v>
@@ -1075,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X6" s="6">
         <v>41255</v>
@@ -1120,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T7" s="2">
         <v>2</v>
@@ -1132,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X7" s="6">
         <v>41255</v>
@@ -1183,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X8" s="6">
         <v>41255</v>
@@ -1234,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X9" s="6">
         <v>41255</v>
@@ -1325,10 +1329,10 @@
         <v>68</v>
       </c>
       <c r="T15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U15" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>118</v>
@@ -1337,7 +1341,7 @@
         <v>113</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -1616,7 +1620,7 @@
         <v>132</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>113</v>
@@ -1648,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U24" s="6">
         <v>41264</v>
@@ -1683,7 +1687,7 @@
         <v>2</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U25" s="6">
         <v>41264</v>
@@ -1721,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U26" s="6">
         <v>41264</v>
@@ -1770,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U27" s="6">
         <v>41264</v>
@@ -1820,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U28" s="6">
         <v>41264</v>
@@ -1899,7 +1903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H33" s="3" t="s">
         <v>97</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>125</v>
       </c>
@@ -1945,10 +1949,10 @@
         <v>114</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>126</v>
       </c>
@@ -1995,13 +1999,16 @@
         <v>23</v>
       </c>
       <c r="W35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="X35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="X35" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y35" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>1</v>
       </c>
@@ -2053,8 +2060,11 @@
       <c r="X36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y36" s="6">
+        <v>41264</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>2</v>
       </c>
@@ -2106,8 +2116,11 @@
       <c r="X37" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y37" s="6">
+        <v>41264</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>3</v>
       </c>
@@ -2153,8 +2166,11 @@
       <c r="X38" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y38" s="6">
+        <v>41264</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H39" s="2">
         <v>3</v>
       </c>
@@ -2188,8 +2204,11 @@
       <c r="X39" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y39" s="6">
+        <v>41264</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H40" s="2">
         <v>4</v>
       </c>
@@ -2223,8 +2242,11 @@
       <c r="X40" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y40" s="6">
+        <v>41264</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H41" s="2">
         <v>5</v>
       </c>
@@ -2258,8 +2280,11 @@
       <c r="X41" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y41" s="6">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="K44" s="3" t="s">
         <v>112</v>
       </c>
@@ -2267,7 +2292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="K45" s="2" t="s">
         <v>81</v>
       </c>
@@ -2275,7 +2300,7 @@
         <v>98</v>
       </c>
       <c r="N45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O45" t="s">
         <v>113</v>
@@ -2284,7 +2309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="K46" s="2">
         <v>1</v>
       </c>
@@ -2301,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="K47" s="2">
         <v>2</v>
       </c>
@@ -2318,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="K48" s="2">
         <v>3</v>
       </c>

--- a/data/Tablas DZ-DB.xlsx
+++ b/data/Tablas DZ-DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="228">
   <si>
     <t>Usuarios</t>
   </si>
@@ -504,13 +504,217 @@
   </si>
   <si>
     <t>Fecha de creacion</t>
+  </si>
+  <si>
+    <t>CODIGO ARTISTA</t>
+  </si>
+  <si>
+    <t>CODIGO CANCION</t>
+  </si>
+  <si>
+    <t>CODIGO TIPO REACCION</t>
+  </si>
+  <si>
+    <t>REACCIONES</t>
+  </si>
+  <si>
+    <t>CODIGO REACCION</t>
+  </si>
+  <si>
+    <t>FECHA DIO REACCION</t>
+  </si>
+  <si>
+    <t>CODIGO USUARIO</t>
+  </si>
+  <si>
+    <t>CODIGO PLAYLIST</t>
+  </si>
+  <si>
+    <t>CODIGO ALBUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODIGO CANCION </t>
+  </si>
+  <si>
+    <t>CODIGO COMENTARIO</t>
+  </si>
+  <si>
+    <t>SEGUIDORES</t>
+  </si>
+  <si>
+    <t>CODIGO SEGUIDOR</t>
+  </si>
+  <si>
+    <t>CODIGO USUARIO SEGUIDOR</t>
+  </si>
+  <si>
+    <t>CODIGO USUARIO SIGUIENDO</t>
+  </si>
+  <si>
+    <t>FECHA SIGUE</t>
+  </si>
+  <si>
+    <t>APLICACIONES</t>
+  </si>
+  <si>
+    <t>CODIGO DE LA APP</t>
+  </si>
+  <si>
+    <t>DESCARGA POR USUARIO</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>CODIGO PUNTUACION</t>
+  </si>
+  <si>
+    <t>NOMBRE PUNTUACION</t>
+  </si>
+  <si>
+    <t>BUENA</t>
+  </si>
+  <si>
+    <t>MUY MALA</t>
+  </si>
+  <si>
+    <t>MALA</t>
+  </si>
+  <si>
+    <t>MUY BUENA</t>
+  </si>
+  <si>
+    <t>EXELENTE</t>
+  </si>
+  <si>
+    <t>ICONO</t>
+  </si>
+  <si>
+    <t>1  ESTRELLA</t>
+  </si>
+  <si>
+    <t>2 ESTRELLA</t>
+  </si>
+  <si>
+    <t>3 ESTRELLA</t>
+  </si>
+  <si>
+    <t>PUNTUACIONEXAPLICACIONES</t>
+  </si>
+  <si>
+    <t>PUNTUACIONES</t>
+  </si>
+  <si>
+    <t>PROMEDIO DE LA APP</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>DESCR….1</t>
+  </si>
+  <si>
+    <t>DESCR….2</t>
+  </si>
+  <si>
+    <t>DESCR….3</t>
+  </si>
+  <si>
+    <t>DESCR….4</t>
+  </si>
+  <si>
+    <t>DESARROLLADORES</t>
+  </si>
+  <si>
+    <t>CODIGO DESARROLLADOR</t>
+  </si>
+  <si>
+    <t>NOMBRE DESARROLLADOR</t>
+  </si>
+  <si>
+    <t>FECHA LANZAMIENTO</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>PREFERENCIAS</t>
+  </si>
+  <si>
+    <t>CODIGO PREFERENCIA</t>
+  </si>
+  <si>
+    <t>NOMBRE PREFERENCIA</t>
+  </si>
+  <si>
+    <t>REGUEE</t>
+  </si>
+  <si>
+    <t>SALSA</t>
+  </si>
+  <si>
+    <t>MERENGUE</t>
+  </si>
+  <si>
+    <t>MUSICA CLASICA</t>
+  </si>
+  <si>
+    <t>ROMANTICAS INGLES</t>
+  </si>
+  <si>
+    <t>ROCK ESPAÑOL</t>
+  </si>
+  <si>
+    <t>ROCK INGLES</t>
+  </si>
+  <si>
+    <t>PUNTA</t>
+  </si>
+  <si>
+    <t>KPOP</t>
+  </si>
+  <si>
+    <t>PREFERENCIASXUSUARIO</t>
+  </si>
+  <si>
+    <t>COMPARTIDOS</t>
+  </si>
+  <si>
+    <t>CODIGO APP</t>
+  </si>
+  <si>
+    <t>CODIGO COMPARTIDO</t>
+  </si>
+  <si>
+    <t>5 ESTRELLA</t>
+  </si>
+  <si>
+    <t>APLICACIONESXUSUARIO</t>
+  </si>
+  <si>
+    <t>PUNTUACIONESXUSUARIO</t>
+  </si>
+  <si>
+    <t>FECHA COMPARTIPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,8 +737,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,12 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -576,9 +781,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -587,31 +790,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
-    <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Énfasis2" xfId="2" builtinId="33"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -890,24 +1093,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Y52"/>
+  <dimension ref="B3:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" customWidth="1"/>
     <col min="13" max="13" width="23.42578125" customWidth="1"/>
     <col min="14" max="14" width="23.140625" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" customWidth="1"/>
@@ -917,17 +1121,20 @@
     <col min="19" max="19" width="18.28515625" customWidth="1"/>
     <col min="20" max="20" width="22.7109375" customWidth="1"/>
     <col min="21" max="21" width="21.140625" customWidth="1"/>
-    <col min="22" max="23" width="20.7109375" customWidth="1"/>
-    <col min="24" max="24" width="19.140625" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" customWidth="1"/>
+    <col min="24" max="24" width="21" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -964,14 +1171,14 @@
       <c r="M4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -990,7 +1197,7 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1028,7 +1235,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -1047,7 +1254,7 @@
       <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1081,11 +1288,11 @@
       <c r="W6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="X6" s="6">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X6" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1104,7 +1311,7 @@
       <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1138,11 +1345,11 @@
       <c r="W7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="X7" s="6">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X7" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -1161,7 +1368,7 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1189,11 +1396,11 @@
       <c r="W8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="X8" s="6">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X8" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1212,7 +1419,7 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1240,22 +1447,22 @@
       <c r="W9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="X9" s="6">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="X9" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1479,7 @@
       <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1281,17 +1488,17 @@
       <c r="L14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -1325,7 +1532,7 @@
       <c r="Q15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="3" t="s">
         <v>68</v>
       </c>
       <c r="T15" s="2" t="s">
@@ -1343,8 +1550,11 @@
       <c r="X15" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y15" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -1380,7 +1590,7 @@
       <c r="Q16" s="2">
         <v>20215151</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <v>41255</v>
       </c>
       <c r="T16" s="2">
@@ -1393,11 +1603,14 @@
       <c r="W16" s="2">
         <v>1</v>
       </c>
-      <c r="X16" s="6">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X16" s="5">
+        <v>41255</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -1433,7 +1646,7 @@
       <c r="Q17" s="2">
         <v>65162613</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>40951</v>
       </c>
       <c r="T17" s="2">
@@ -1446,11 +1659,14 @@
       <c r="W17" s="2">
         <v>5</v>
       </c>
-      <c r="X17" s="6">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X17" s="5">
+        <v>41255</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <v>4</v>
       </c>
@@ -1470,7 +1686,7 @@
       <c r="L18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>3</v>
       </c>
       <c r="O18" s="2">
@@ -1482,7 +1698,7 @@
       <c r="Q18" s="2">
         <v>45252</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <v>40941</v>
       </c>
       <c r="T18" s="2">
@@ -1495,11 +1711,14 @@
       <c r="W18" s="2">
         <v>1</v>
       </c>
-      <c r="X18" s="6">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X18" s="5">
+        <v>41255</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <v>5</v>
       </c>
@@ -1523,11 +1742,14 @@
       <c r="W19" s="2">
         <v>3</v>
       </c>
-      <c r="X19" s="6">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X19" s="5">
+        <v>41255</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <v>6</v>
       </c>
@@ -1542,7 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <v>7</v>
       </c>
@@ -1557,7 +1779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <v>8</v>
       </c>
@@ -1571,14 +1793,14 @@
       <c r="I22" s="2">
         <v>3</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T22" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <v>9</v>
       </c>
@@ -1604,8 +1826,8 @@
       <c r="N23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>70</v>
+      <c r="O23" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>71</v>
@@ -1613,20 +1835,24 @@
       <c r="Q23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="R23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="W23" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X23" s="12"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="K24" s="2">
         <v>1</v>
       </c>
@@ -1639,29 +1865,33 @@
       <c r="N24" s="2">
         <v>1</v>
       </c>
-      <c r="O24" s="6">
-        <v>34263</v>
-      </c>
-      <c r="P24" s="7">
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+      <c r="P24" s="6">
         <v>0.16388888888888889</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S24" s="2">
-        <v>1</v>
-      </c>
-      <c r="T24" s="2" t="s">
+      <c r="R24" s="5">
+        <v>34263</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="U24" s="6">
+      <c r="V24" s="5">
         <v>41264</v>
       </c>
-      <c r="V24" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W24" s="2">
+        <v>5</v>
+      </c>
+      <c r="X24" s="12"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="K25" s="2">
         <v>2</v>
       </c>
@@ -1674,30 +1904,34 @@
       <c r="N25" s="2">
         <v>2</v>
       </c>
-      <c r="O25" s="6">
-        <v>34263</v>
-      </c>
-      <c r="P25" s="7">
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="6">
         <v>0.18055555555555555</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S25" s="2">
-        <v>2</v>
-      </c>
-      <c r="T25" s="2" t="s">
+      <c r="R25" s="5">
+        <v>34263</v>
+      </c>
+      <c r="T25" s="2">
+        <v>2</v>
+      </c>
+      <c r="U25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U25" s="6">
+      <c r="V25" s="5">
         <v>41264</v>
       </c>
-      <c r="V25" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="W25" s="2">
+        <v>3</v>
+      </c>
+      <c r="X25" s="12"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
         <v>117</v>
       </c>
       <c r="K26" s="2">
@@ -1712,29 +1946,33 @@
       <c r="N26" s="2">
         <v>3</v>
       </c>
-      <c r="O26" s="6">
-        <v>37185</v>
-      </c>
-      <c r="P26" s="7">
+      <c r="O26" s="3">
+        <v>2</v>
+      </c>
+      <c r="P26" s="6">
         <v>0.22916666666666666</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S26" s="2">
-        <v>3</v>
-      </c>
-      <c r="T26" s="2" t="s">
+      <c r="R26" s="5">
+        <v>37185</v>
+      </c>
+      <c r="T26" s="2">
+        <v>3</v>
+      </c>
+      <c r="U26" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="U26" s="6">
+      <c r="V26" s="5">
         <v>41264</v>
       </c>
-      <c r="V26" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W26" s="2">
+        <v>3</v>
+      </c>
+      <c r="X26" s="12"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>118</v>
       </c>
@@ -1747,10 +1985,8 @@
       <c r="E27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
       <c r="K27" s="2">
         <v>4</v>
       </c>
@@ -1763,42 +1999,44 @@
       <c r="N27" s="2">
         <v>4</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="3">
+        <v>5</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="5">
         <v>43029</v>
       </c>
-      <c r="P27" s="7">
-        <v>0.15277777777777776</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="S27" s="2">
-        <v>4</v>
-      </c>
-      <c r="T27" s="2" t="s">
+      <c r="T27" s="2">
+        <v>4</v>
+      </c>
+      <c r="U27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="U27" s="6">
+      <c r="V27" s="5">
         <v>41264</v>
       </c>
-      <c r="V27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W27" s="2">
+        <v>1</v>
+      </c>
+      <c r="X27" s="12"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="6">
-        <v>41255</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D28" s="5">
+        <v>41255</v>
+      </c>
+      <c r="E28" s="7">
         <v>1000000</v>
       </c>
-      <c r="F28" s="2">
-        <v>3</v>
-      </c>
+      <c r="F28" s="9"/>
       <c r="K28" s="2">
         <v>5</v>
       </c>
@@ -1811,44 +2049,46 @@
       <c r="N28" s="2">
         <v>5</v>
       </c>
-      <c r="O28" s="6">
-        <v>39742</v>
-      </c>
-      <c r="P28" s="7">
+      <c r="O28" s="3">
+        <v>3</v>
+      </c>
+      <c r="P28" s="6">
         <v>0.16527777777777777</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S28" s="2">
-        <v>5</v>
-      </c>
-      <c r="T28" s="2" t="s">
+      <c r="R28" s="5">
+        <v>39742</v>
+      </c>
+      <c r="T28" s="2">
+        <v>5</v>
+      </c>
+      <c r="U28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="U28" s="6">
+      <c r="V28" s="5">
         <v>41264</v>
       </c>
-      <c r="V28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W28" s="2">
+        <v>1</v>
+      </c>
+      <c r="X28" s="12"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="6">
-        <v>41255</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="D29" s="5">
+        <v>41255</v>
+      </c>
+      <c r="E29" s="7">
         <v>2000000</v>
       </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
+      <c r="F29" s="9"/>
       <c r="K29" s="2">
         <v>6</v>
       </c>
@@ -1861,61 +2101,60 @@
       <c r="N29" s="2">
         <v>6</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="5">
         <v>41933</v>
       </c>
-      <c r="P29" s="7">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="6">
-        <v>41255</v>
-      </c>
-      <c r="E30" s="8">
+      <c r="D30" s="5">
+        <v>41255</v>
+      </c>
+      <c r="E30" s="7">
         <v>100000</v>
       </c>
-      <c r="F30" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="6">
-        <v>41255</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="D31" s="5">
+        <v>41255</v>
+      </c>
+      <c r="E31" s="7">
         <v>25000</v>
       </c>
-      <c r="F31" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="H33" s="3" t="s">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H33" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
         <v>125</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -1945,14 +2184,14 @@
       <c r="R34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="T34" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="W34" s="3" t="s">
+      <c r="W34" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>126</v>
       </c>
@@ -1965,6 +2204,9 @@
       <c r="E35" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="F35" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="H35" s="2">
         <v>1</v>
       </c>
@@ -1986,10 +2228,10 @@
       <c r="P35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q35" s="6">
-        <v>41255</v>
-      </c>
-      <c r="R35" s="6">
+      <c r="Q35" s="5">
+        <v>41255</v>
+      </c>
+      <c r="R35" s="5">
         <v>41255</v>
       </c>
       <c r="T35" s="2" t="s">
@@ -2008,7 +2250,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>1</v>
       </c>
@@ -2021,6 +2263,9 @@
       <c r="E36" s="2">
         <v>1</v>
       </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
       <c r="H36" s="2">
         <v>1</v>
       </c>
@@ -2042,10 +2287,10 @@
       <c r="P36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q36" s="6">
-        <v>41255</v>
-      </c>
-      <c r="R36" s="6">
+      <c r="Q36" s="5">
+        <v>41255</v>
+      </c>
+      <c r="R36" s="5">
         <v>41255</v>
       </c>
       <c r="T36" s="2">
@@ -2060,11 +2305,11 @@
       <c r="X36" s="2">
         <v>1</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="Y36" s="5">
         <v>41264</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>2</v>
       </c>
@@ -2077,6 +2322,9 @@
       <c r="E37" s="2">
         <v>2</v>
       </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
       <c r="H37" s="2">
         <v>2</v>
       </c>
@@ -2098,10 +2346,10 @@
       <c r="P37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q37" s="6">
-        <v>41255</v>
-      </c>
-      <c r="R37" s="6">
+      <c r="Q37" s="5">
+        <v>41255</v>
+      </c>
+      <c r="R37" s="5">
         <v>41255</v>
       </c>
       <c r="T37" s="2">
@@ -2116,11 +2364,11 @@
       <c r="X37" s="2">
         <v>5</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="Y37" s="5">
         <v>41264</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>3</v>
       </c>
@@ -2133,6 +2381,9 @@
       <c r="E38" s="2">
         <v>4</v>
       </c>
+      <c r="F38" s="3">
+        <v>5</v>
+      </c>
       <c r="H38" s="2">
         <v>2</v>
       </c>
@@ -2148,10 +2399,10 @@
       <c r="P38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q38" s="6">
-        <v>41255</v>
-      </c>
-      <c r="R38" s="6">
+      <c r="Q38" s="5">
+        <v>41255</v>
+      </c>
+      <c r="R38" s="5">
         <v>41255</v>
       </c>
       <c r="T38" s="2">
@@ -2166,11 +2417,11 @@
       <c r="X38" s="2">
         <v>4</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="Y38" s="5">
         <v>41264</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="H39" s="2">
         <v>3</v>
       </c>
@@ -2186,10 +2437,10 @@
       <c r="P39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q39" s="6">
-        <v>41255</v>
-      </c>
-      <c r="R39" s="6">
+      <c r="Q39" s="5">
+        <v>41255</v>
+      </c>
+      <c r="R39" s="5">
         <v>41255</v>
       </c>
       <c r="T39" s="2">
@@ -2204,11 +2455,11 @@
       <c r="X39" s="2">
         <v>5</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="Y39" s="5">
         <v>41264</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="H40" s="2">
         <v>4</v>
       </c>
@@ -2224,10 +2475,10 @@
       <c r="P40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q40" s="6">
-        <v>41255</v>
-      </c>
-      <c r="R40" s="6">
+      <c r="Q40" s="5">
+        <v>41255</v>
+      </c>
+      <c r="R40" s="5">
         <v>41255</v>
       </c>
       <c r="T40" s="2">
@@ -2242,11 +2493,11 @@
       <c r="X40" s="2">
         <v>2</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="Y40" s="5">
         <v>41264</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="H41" s="2">
         <v>5</v>
       </c>
@@ -2262,10 +2513,10 @@
       <c r="P41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q41" s="6">
-        <v>41255</v>
-      </c>
-      <c r="R41" s="6">
+      <c r="Q41" s="5">
+        <v>41255</v>
+      </c>
+      <c r="R41" s="5">
         <v>41255</v>
       </c>
       <c r="T41" s="2">
@@ -2280,103 +2531,346 @@
       <c r="X41" s="2">
         <v>3</v>
       </c>
-      <c r="Y41" s="6">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="K44" s="3" t="s">
+      <c r="Y41" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="K44" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="K45" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="K46" s="2">
         <v>1</v>
       </c>
       <c r="L46" s="2">
         <v>3</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>2</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="N46" s="2">
+        <v>1</v>
+      </c>
+      <c r="O46" s="2">
+        <v>2</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1</v>
+      </c>
+      <c r="R46" s="2">
+        <v>5</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <v>41255</v>
+      </c>
       <c r="K47" s="2">
         <v>2</v>
       </c>
       <c r="L47" s="2">
         <v>7</v>
       </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="O47">
-        <v>4</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="N47" s="2">
+        <v>2</v>
+      </c>
+      <c r="O47" s="2">
+        <v>2</v>
+      </c>
+      <c r="P47" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>4</v>
+      </c>
+      <c r="R47" s="2">
+        <v>3</v>
+      </c>
+      <c r="T47" s="2">
+        <v>1</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1</v>
+      </c>
+      <c r="V47" s="5">
+        <v>41255</v>
+      </c>
+      <c r="W47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="5">
+        <v>41255</v>
+      </c>
       <c r="K48" s="2">
         <v>3</v>
       </c>
       <c r="L48" s="2">
         <v>4</v>
       </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="N48" s="2">
+        <v>3</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>2</v>
+      </c>
+      <c r="R48" s="2">
+        <v>1</v>
+      </c>
+      <c r="T48" s="2">
+        <v>2</v>
+      </c>
+      <c r="U48" s="2">
+        <v>2</v>
+      </c>
+      <c r="V48" s="5">
+        <v>41255</v>
+      </c>
+      <c r="W48" s="2">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3</v>
+      </c>
+      <c r="H49" s="5">
+        <v>41255</v>
+      </c>
       <c r="K49" s="2">
         <v>4</v>
       </c>
       <c r="L49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="T49" s="2">
+        <v>3</v>
+      </c>
+      <c r="U49" s="2">
+        <v>2</v>
+      </c>
+      <c r="V49" s="5">
+        <v>41255</v>
+      </c>
+      <c r="W49" s="2">
+        <v>2</v>
+      </c>
+      <c r="X49" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="5">
+        <v>41255</v>
+      </c>
       <c r="K50" s="2">
         <v>4</v>
       </c>
       <c r="L50" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="T50" s="2">
+        <v>4</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1</v>
+      </c>
+      <c r="V50" s="5">
+        <v>41255</v>
+      </c>
+      <c r="W50" s="2">
+        <v>3</v>
+      </c>
+      <c r="X50" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="K51" s="2">
         <v>5</v>
       </c>
@@ -2384,12 +2878,582 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="K52" s="2">
         <v>6</v>
       </c>
       <c r="L52" s="2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C54" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>200</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5">
+        <v>41255</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>1</v>
+      </c>
+      <c r="R56" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3145</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>3</v>
+      </c>
+      <c r="H57" s="5">
+        <v>41255</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L57" s="2">
+        <v>2</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2">
+        <v>2</v>
+      </c>
+      <c r="O57" s="2">
+        <v>5</v>
+      </c>
+      <c r="P57" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>1</v>
+      </c>
+      <c r="R57" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>5</v>
+      </c>
+      <c r="H58" s="5">
+        <v>41255</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L58" s="2">
+        <v>3</v>
+      </c>
+      <c r="M58" s="2">
+        <v>2</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>1</v>
+      </c>
+      <c r="R58" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C59" s="2">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" s="2">
+        <v>3</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
+        <v>41255</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L59" s="2">
+        <v>4</v>
+      </c>
+      <c r="M59" s="2">
+        <v>3</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>2</v>
+      </c>
+      <c r="R59" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="J60" s="9"/>
+      <c r="L60" s="2">
+        <v>5</v>
+      </c>
+      <c r="M60" s="2">
+        <v>5</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>5</v>
+      </c>
+      <c r="R60" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2">
+        <v>2</v>
+      </c>
+      <c r="I67" s="2">
+        <v>2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2</v>
+      </c>
+      <c r="I68" s="2">
+        <v>3</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="2">
+        <v>5</v>
+      </c>
+      <c r="F69" s="2">
+        <v>3</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>3</v>
+      </c>
+      <c r="J69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="2">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="2">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" s="2">
+        <v>3</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="2">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F78" s="2">
+        <v>4</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I78" s="2">
+        <v>2</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="2">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" s="2">
+        <v>5</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I79" s="2">
+        <v>3</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F80" s="2">
+        <v>6</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I80" s="2">
+        <v>4</v>
+      </c>
+      <c r="J80" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F81" s="2">
+        <v>7</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I81" s="2">
+        <v>5</v>
+      </c>
+      <c r="J81" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F82" s="2">
+        <v>8</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I82" s="2">
+        <v>5</v>
+      </c>
+      <c r="J82" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F83" s="2">
+        <v>9</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I83" s="2">
+        <v>5</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2401,5 +3465,6 @@
     <hyperlink ref="H9" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>